--- a/f1.xlsx
+++ b/f1.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,458 +825,402 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B60">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B64">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B66">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B69">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B72">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B73">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B76">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B78">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B84">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B85">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B87">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B89">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B90">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B91">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
+        <v>49</v>
+      </c>
+      <c r="B92">
         <v>80</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B93">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B94">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B95">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B98">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B99">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B100">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B101">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B102">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B103">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B104">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B105">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>65</v>
-      </c>
-      <c r="B106">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>58</v>
-      </c>
-      <c r="B107">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>62</v>
-      </c>
-      <c r="B108">
         <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>50</v>
-      </c>
-      <c r="B109">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>74</v>
-      </c>
-      <c r="B110">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>49</v>
-      </c>
-      <c r="B111">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>28</v>
-      </c>
-      <c r="B112">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/f1.xlsx
+++ b/f1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>020102</t>
   </si>
@@ -377,1164 +377,849 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>59</v>
       </c>
       <c r="B2">
         <v>68</v>
       </c>
-      <c r="C2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>51</v>
       </c>
       <c r="B3">
         <v>66</v>
       </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>65</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>68</v>
       </c>
       <c r="B5">
         <v>88</v>
       </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>93</v>
       </c>
       <c r="B6">
         <v>89</v>
       </c>
-      <c r="C6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>43</v>
       </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>65</v>
       </c>
       <c r="B8">
         <v>74</v>
       </c>
-      <c r="C8">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>67</v>
       </c>
       <c r="B9">
         <v>73</v>
       </c>
-      <c r="C9">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>78</v>
       </c>
       <c r="B10">
         <v>75</v>
       </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>46</v>
       </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>60</v>
       </c>
       <c r="B12">
         <v>83</v>
       </c>
-      <c r="C12">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13">
         <v>67</v>
       </c>
-      <c r="C13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>40</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
-      <c r="C14">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>40</v>
       </c>
       <c r="B15">
         <v>59</v>
       </c>
-      <c r="C15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>43</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>41</v>
       </c>
       <c r="B17">
         <v>82</v>
       </c>
-      <c r="C17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>33</v>
       </c>
       <c r="B18">
         <v>60</v>
       </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>48</v>
       </c>
       <c r="B19">
         <v>89</v>
       </c>
-      <c r="C19">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>75</v>
       </c>
       <c r="B20">
         <v>75</v>
       </c>
-      <c r="C20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>46</v>
       </c>
       <c r="B21">
         <v>74</v>
       </c>
-      <c r="C21">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>60</v>
       </c>
       <c r="B22">
         <v>64</v>
       </c>
-      <c r="C22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23">
         <v>51</v>
       </c>
-      <c r="C23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>40</v>
       </c>
       <c r="B24">
         <v>66</v>
       </c>
-      <c r="C24">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>29</v>
       </c>
       <c r="B25">
         <v>59</v>
       </c>
-      <c r="C25">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>59</v>
       </c>
       <c r="B26">
         <v>73</v>
       </c>
-      <c r="C26">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>78</v>
       </c>
       <c r="B27">
         <v>79</v>
       </c>
-      <c r="C27">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>89</v>
       </c>
       <c r="B28">
         <v>78</v>
       </c>
-      <c r="C28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>61</v>
       </c>
       <c r="B29">
         <v>60</v>
       </c>
-      <c r="C29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>74</v>
       </c>
       <c r="B30">
         <v>94</v>
       </c>
-      <c r="C30">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>62</v>
       </c>
       <c r="B31">
         <v>87</v>
       </c>
-      <c r="C31">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>47</v>
       </c>
       <c r="B32">
         <v>47</v>
       </c>
-      <c r="C32">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>49</v>
       </c>
       <c r="B33">
         <v>52</v>
       </c>
-      <c r="C33">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34">
         <v>86</v>
       </c>
-      <c r="C34">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>80</v>
       </c>
       <c r="B35">
         <v>90</v>
       </c>
-      <c r="C35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>47</v>
       </c>
       <c r="B36">
         <v>74</v>
       </c>
-      <c r="C36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>63</v>
       </c>
       <c r="B37">
         <v>89</v>
       </c>
-      <c r="C37">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>49</v>
       </c>
       <c r="B38">
         <v>80</v>
       </c>
-      <c r="C38">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>50</v>
       </c>
       <c r="B39">
         <v>79</v>
       </c>
-      <c r="C39">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>50</v>
       </c>
       <c r="B40">
         <v>70</v>
       </c>
-      <c r="C40">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>73</v>
       </c>
-      <c r="C41">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42">
         <v>56</v>
       </c>
-      <c r="C42">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>49</v>
       </c>
       <c r="B43">
         <v>88</v>
       </c>
-      <c r="C43">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>45</v>
       </c>
       <c r="B44">
         <v>78</v>
       </c>
-      <c r="C44">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>67</v>
       </c>
       <c r="B45">
         <v>89</v>
       </c>
-      <c r="C45">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>59</v>
       </c>
       <c r="B46">
         <v>86</v>
       </c>
-      <c r="C46">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>60</v>
       </c>
       <c r="B47">
         <v>73</v>
       </c>
-      <c r="C47">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>77</v>
       </c>
       <c r="B48">
         <v>68</v>
       </c>
-      <c r="C48">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>65</v>
       </c>
       <c r="B49">
         <v>77</v>
       </c>
-      <c r="C49">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>58</v>
       </c>
       <c r="B50">
         <v>75</v>
       </c>
-      <c r="C50">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>62</v>
       </c>
       <c r="B51">
         <v>67</v>
       </c>
-      <c r="C51">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>92</v>
       </c>
       <c r="B52">
         <v>88</v>
       </c>
-      <c r="C52">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>40</v>
       </c>
       <c r="B53">
         <v>45</v>
       </c>
-      <c r="C53">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>31</v>
       </c>
       <c r="B54">
         <v>61</v>
       </c>
-      <c r="C54">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
         <v>68</v>
       </c>
-      <c r="C55">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>48</v>
       </c>
       <c r="B56">
         <v>65</v>
       </c>
-      <c r="C56">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>97</v>
       </c>
       <c r="B57">
         <v>92</v>
       </c>
-      <c r="C57">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>44</v>
       </c>
       <c r="B58">
         <v>77</v>
       </c>
-      <c r="C58">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>72</v>
       </c>
-      <c r="C59">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>64</v>
       </c>
       <c r="B60">
         <v>75</v>
       </c>
-      <c r="C60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>56</v>
       </c>
       <c r="B61">
         <v>62</v>
       </c>
-      <c r="C61">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>64</v>
       </c>
       <c r="B62">
         <v>87</v>
       </c>
-      <c r="C62">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>0</v>
       </c>
       <c r="B63">
         <v>66</v>
       </c>
-      <c r="C63">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>51</v>
       </c>
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>43</v>
       </c>
       <c r="B65">
         <v>88</v>
       </c>
-      <c r="C65">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>40</v>
       </c>
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>45</v>
       </c>
       <c r="B67">
         <v>85</v>
       </c>
-      <c r="C67">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>52</v>
       </c>
       <c r="B68">
         <v>81</v>
       </c>
-      <c r="C68">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>49</v>
       </c>
       <c r="B69">
         <v>75</v>
       </c>
-      <c r="C69">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>41</v>
       </c>
       <c r="B70">
         <v>78</v>
       </c>
-      <c r="C70">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>77</v>
       </c>
       <c r="B71">
         <v>86</v>
       </c>
-      <c r="C71">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>51</v>
       </c>
       <c r="B72">
         <v>61</v>
       </c>
-      <c r="C72">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>45</v>
       </c>
       <c r="B73">
         <v>55</v>
       </c>
-      <c r="C73">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>87</v>
       </c>
       <c r="B74">
         <v>76</v>
       </c>
-      <c r="C74">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>56</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>43</v>
       </c>
       <c r="B76">
         <v>65</v>
       </c>
-      <c r="C76">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>40</v>
       </c>
       <c r="B77">
         <v>66</v>
       </c>
-      <c r="C77">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>40</v>
       </c>
       <c r="B78">
         <v>67</v>
       </c>
-      <c r="C78">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>48</v>
       </c>
       <c r="B79">
         <v>64</v>
       </c>
-      <c r="C79">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>52</v>
       </c>
       <c r="B80">
         <v>62</v>
       </c>
-      <c r="C80">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>42</v>
       </c>
       <c r="B81">
         <v>62</v>
       </c>
-      <c r="C81">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>30</v>
       </c>
       <c r="B82">
         <v>45</v>
       </c>
-      <c r="C82">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>73</v>
       </c>
       <c r="B83">
         <v>79</v>
       </c>
-      <c r="C83">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>44</v>
       </c>
       <c r="B84">
         <v>50</v>
       </c>
-      <c r="C84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>48</v>
       </c>
       <c r="B85">
         <v>77</v>
       </c>
-      <c r="C85">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>60</v>
       </c>
       <c r="B86">
         <v>71</v>
       </c>
-      <c r="C86">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>93</v>
       </c>
       <c r="B87">
         <v>91</v>
       </c>
-      <c r="C87">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>67</v>
       </c>
       <c r="B88">
         <v>83</v>
       </c>
-      <c r="C88">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>48</v>
       </c>
       <c r="B89">
         <v>84</v>
       </c>
-      <c r="C89">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>69</v>
       </c>
       <c r="B90">
         <v>75</v>
       </c>
-      <c r="C90">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>58</v>
       </c>
       <c r="B91">
         <v>78</v>
       </c>
-      <c r="C91">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>58</v>
       </c>
       <c r="B92">
         <v>75</v>
       </c>
-      <c r="C92">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>44</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>58</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
-      <c r="C94">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>40</v>
       </c>
       <c r="B95">
         <v>61</v>
       </c>
-      <c r="C95">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>64</v>
       </c>
       <c r="B96">
         <v>90</v>
       </c>
-      <c r="C96">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>80</v>
       </c>
       <c r="B97">
         <v>90</v>
       </c>
-      <c r="C97">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>61</v>
       </c>
       <c r="B98">
         <v>86</v>
       </c>
-      <c r="C98">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>50</v>
       </c>
       <c r="B99">
         <v>81</v>
       </c>
-      <c r="C99">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>21</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>33</v>
       </c>
       <c r="B101">
         <v>66</v>
       </c>
-      <c r="C101">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>44</v>
       </c>
       <c r="B102">
         <v>76</v>
       </c>
-      <c r="C102">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>57</v>
       </c>
       <c r="B103">
         <v>77</v>
       </c>
-      <c r="C103">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>75</v>
       </c>
       <c r="B104">
         <v>76</v>
       </c>
-      <c r="C104">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>71</v>
       </c>
       <c r="B105">
-        <v>85</v>
-      </c>
-      <c r="C105">
         <v>85</v>
       </c>
     </row>

--- a/f1.xlsx
+++ b/f1.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>020102</t>
+  </si>
   <si>
     <t>020104</t>
   </si>
   <si>
-    <t>020102</t>
+    <t>020106</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,1151 +394,601 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4">
         <v>60</v>
-      </c>
-      <c r="B4">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>68</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
         <v>75</v>
       </c>
-      <c r="B10">
-        <v>78</v>
-      </c>
       <c r="C10">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
+        <v>51</v>
+      </c>
+      <c r="B14">
         <v>61</v>
       </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
       <c r="C14">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>81</v>
+      </c>
+      <c r="C18">
         <v>60</v>
-      </c>
-      <c r="B18">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>62</v>
       </c>
       <c r="C31">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B33">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B38">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C48">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C52">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>76</v>
+      </c>
+      <c r="C54">
         <v>61</v>
-      </c>
-      <c r="B54">
-        <v>31</v>
-      </c>
-      <c r="C54">
-        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C55">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>65</v>
-      </c>
-      <c r="B56">
-        <v>48</v>
-      </c>
-      <c r="C56">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>92</v>
-      </c>
-      <c r="B57">
-        <v>97</v>
-      </c>
-      <c r="C57">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>77</v>
-      </c>
-      <c r="B58">
-        <v>44</v>
-      </c>
-      <c r="C58">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>72</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>75</v>
-      </c>
-      <c r="B60">
-        <v>64</v>
-      </c>
-      <c r="C60">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>56</v>
-      </c>
-      <c r="C61">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>87</v>
-      </c>
-      <c r="B62">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>88</v>
-      </c>
-      <c r="B65">
-        <v>43</v>
-      </c>
-      <c r="C65">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
         <v>85</v>
-      </c>
-      <c r="B67">
-        <v>45</v>
-      </c>
-      <c r="C67">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>81</v>
-      </c>
-      <c r="B68">
-        <v>52</v>
-      </c>
-      <c r="C68">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>75</v>
-      </c>
-      <c r="B69">
-        <v>49</v>
-      </c>
-      <c r="C69">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>78</v>
-      </c>
-      <c r="B70">
-        <v>41</v>
-      </c>
-      <c r="C70">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>86</v>
-      </c>
-      <c r="B71">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>61</v>
-      </c>
-      <c r="B72">
-        <v>51</v>
-      </c>
-      <c r="C72">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>55</v>
-      </c>
-      <c r="B73">
-        <v>45</v>
-      </c>
-      <c r="C73">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>76</v>
-      </c>
-      <c r="B74">
-        <v>87</v>
-      </c>
-      <c r="C74">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>56</v>
-      </c>
-      <c r="C75">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>65</v>
-      </c>
-      <c r="B76">
-        <v>43</v>
-      </c>
-      <c r="C76">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>66</v>
-      </c>
-      <c r="B77">
-        <v>40</v>
-      </c>
-      <c r="C77">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>67</v>
-      </c>
-      <c r="B78">
-        <v>40</v>
-      </c>
-      <c r="C78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>64</v>
-      </c>
-      <c r="B79">
-        <v>48</v>
-      </c>
-      <c r="C79">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>62</v>
-      </c>
-      <c r="B80">
-        <v>52</v>
-      </c>
-      <c r="C80">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>62</v>
-      </c>
-      <c r="B81">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>45</v>
-      </c>
-      <c r="B82">
-        <v>30</v>
-      </c>
-      <c r="C82">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>79</v>
-      </c>
-      <c r="B83">
-        <v>73</v>
-      </c>
-      <c r="C83">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>50</v>
-      </c>
-      <c r="B84">
-        <v>44</v>
-      </c>
-      <c r="C84">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>77</v>
-      </c>
-      <c r="B85">
-        <v>48</v>
-      </c>
-      <c r="C85">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>71</v>
-      </c>
-      <c r="B86">
-        <v>60</v>
-      </c>
-      <c r="C86">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>91</v>
-      </c>
-      <c r="B87">
-        <v>93</v>
-      </c>
-      <c r="C87">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>83</v>
-      </c>
-      <c r="B88">
-        <v>67</v>
-      </c>
-      <c r="C88">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>84</v>
-      </c>
-      <c r="B89">
-        <v>48</v>
-      </c>
-      <c r="C89">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>75</v>
-      </c>
-      <c r="B90">
-        <v>69</v>
-      </c>
-      <c r="C90">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>78</v>
-      </c>
-      <c r="B91">
-        <v>58</v>
-      </c>
-      <c r="C91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>75</v>
-      </c>
-      <c r="B92">
-        <v>58</v>
-      </c>
-      <c r="C92">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>64</v>
-      </c>
-      <c r="B93">
-        <v>44</v>
-      </c>
-      <c r="C93">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>64</v>
-      </c>
-      <c r="B94">
-        <v>58</v>
-      </c>
-      <c r="C94">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>61</v>
-      </c>
-      <c r="B95">
-        <v>40</v>
-      </c>
-      <c r="C95">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>90</v>
-      </c>
-      <c r="B96">
-        <v>64</v>
-      </c>
-      <c r="C96">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>90</v>
-      </c>
-      <c r="B97">
-        <v>80</v>
-      </c>
-      <c r="C97">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>86</v>
-      </c>
-      <c r="B98">
-        <v>61</v>
-      </c>
-      <c r="C98">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>81</v>
-      </c>
-      <c r="B99">
-        <v>50</v>
-      </c>
-      <c r="C99">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>21</v>
-      </c>
-      <c r="C100">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>66</v>
-      </c>
-      <c r="B101">
-        <v>33</v>
-      </c>
-      <c r="C101">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>76</v>
-      </c>
-      <c r="B102">
-        <v>44</v>
-      </c>
-      <c r="C102">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>77</v>
-      </c>
-      <c r="B103">
-        <v>57</v>
-      </c>
-      <c r="C103">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>76</v>
-      </c>
-      <c r="B104">
-        <v>75</v>
-      </c>
-      <c r="C104">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>85</v>
-      </c>
-      <c r="B105">
-        <v>71</v>
-      </c>
-      <c r="C105">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
